--- a/public/templates/sample_template.xlsx
+++ b/public/templates/sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windr\AppData\Local\Temp\BvSshSftp-XKF8QLGR\C3E6AVWE\NGA1VNY9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AF7CE4-A9FD-4A7E-9BF7-795FD08F502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCFE1DB-EEDF-4295-B200-C63F6EBDC4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{6AEB16AC-FD57-4DF2-A537-2438A5304664}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{6AEB16AC-FD57-4DF2-A537-2438A5304664}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Blood DNA RNA" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,18 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="DEG預設參數">[2]下拉選單!$C$2:$C$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cell Blood DNA RNA'!$A$1:$J$38</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Cell Blood DNA RNA'!$1:$5</definedName>
-    <definedName name="WGS">[3]清單!#REF!</definedName>
-    <definedName name="WGS1_">[4]清單!#REF!</definedName>
-    <definedName name="WGSd">[3]清單!#REF!</definedName>
-    <definedName name="WMS">[3]清單!#REF!</definedName>
-    <definedName name="WMS1_">[4]清單!#REF!</definedName>
-    <definedName name="參考">[2]下拉選單!$G$1:$J$18</definedName>
-    <definedName name="樣本性質">[2]下拉選單!$A$2:$A$4</definedName>
+    <definedName name="DEG預設參數">[1]下拉選單!$C$2:$C$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cell Blood DNA RNA'!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Cell Blood DNA RNA'!$1:$2</definedName>
+    <definedName name="WGS">[2]清單!#REF!</definedName>
+    <definedName name="WGS1_">[3]清單!#REF!</definedName>
+    <definedName name="WGSd">[2]清單!#REF!</definedName>
+    <definedName name="WMS">[2]清單!#REF!</definedName>
+    <definedName name="WMS1_">[3]清單!#REF!</definedName>
+    <definedName name="參考">[1]下拉選單!$G$1:$J$18</definedName>
+    <definedName name="樣本性質">[1]下拉選單!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,56 +53,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">                                台基盟生技股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                               委託服務送件單-Cell/ Blood/ Tissue/ DNA/ RNA樣本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>標*為必填之欄位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶採購單號：</t>
-  </si>
-  <si>
-    <t>業務代表：</t>
-  </si>
-  <si>
-    <t>TGIA訂單號：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填寫日期：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 委託人資訊 (由訂購單自動帶入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>負責人/ 
-主持人*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡人*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡電話*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Sample Sheet: (不同的物種請分開填寫訂購單)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -191,100 +147,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3. Run Configuration:</t>
+    <t>Sample Sheet: (不同的物種請分開填寫訂購單)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>定序機型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不限 (預設為</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，指定機台請洽業務)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read 1 Length (bp)*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>151bp (常規為151bp，特殊需求請洽業務)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read 2 Length (bp)*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phiX (%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1% (預設為1%；限包lane、包片可選擇)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Custom Primer Information (If Required):</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read 1</t>
-  </si>
-  <si>
-    <t>Index 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read 2</t>
-  </si>
-  <si>
-    <t>Custom Primer Name*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primer Loading Position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primer Stock Conc. (uM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primer Volume (uL)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 電泳膠圖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>電泳膠圖：</t>
+    <t>為必填之欄位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -292,10 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-404]e&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,22 +221,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -409,13 +257,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF339933"/>
@@ -432,36 +273,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -493,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -577,14 +388,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -593,162 +421,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -757,156 +436,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -920,349 +453,118 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,14 +583,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1302,7 +596,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>340178</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9858</xdr:rowOff>
+      <xdr:rowOff>6683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1354,14 +648,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>259533</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>56061</xdr:rowOff>
+      <xdr:colOff>256358</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49711</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1407,14 +701,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1049020</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87369</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1460,14 +754,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1031305</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>78751</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1513,14 +807,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1160780</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>78479</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88003</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1566,14 +860,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>288182</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19684</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1199861</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26034</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1619,14 +913,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>770048</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>78479</xdr:rowOff>
+      <xdr:colOff>773223</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88003</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1672,7 +966,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4432646" cy="438150"/>
@@ -1720,7 +1014,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1049020" cy="326777"/>
@@ -1768,7 +1062,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4430989" cy="438978"/>
@@ -1816,7 +1110,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1049020" cy="516448"/>
@@ -1864,7 +1158,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031305" cy="516448"/>
@@ -1912,7 +1206,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1160780" cy="513908"/>
@@ -1960,7 +1254,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770048" cy="513908"/>
@@ -2008,7 +1302,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1049020" cy="326777"/>
@@ -2056,7 +1350,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4430989" cy="438978"/>
@@ -2104,7 +1398,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031305" cy="516448"/>
@@ -2152,7 +1446,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770048" cy="513908"/>
@@ -2200,7 +1494,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1049020" cy="326777"/>
@@ -2244,134 +1538,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>495300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="CheckBox19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2404FC1A-18C8-4D5B-B841-E7945C71233A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>438150</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>692150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="CheckBox20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC899ED-0610-4039-8600-507E8ED617F6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>259533</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>56061</xdr:rowOff>
+      <xdr:colOff>256358</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49711</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2417,14 +1595,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>259533</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>107768</xdr:rowOff>
+      <xdr:colOff>256358</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107767</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2470,14 +1648,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1031305</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>78751</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2523,7 +1701,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1049020" cy="326777"/>
@@ -2571,7 +1749,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031305" cy="516448"/>
@@ -2619,7 +1797,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1049020" cy="326777"/>
@@ -2667,7 +1845,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031305" cy="516448"/>
@@ -2715,7 +1893,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1049020" cy="326777"/>
@@ -2763,7 +1941,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4432646" cy="438150"/>
@@ -2813,61 +1991,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="訂購單"/>
-      <sheetName val="Cell Blood DNA RNA"/>
-      <sheetName val="Library"/>
-      <sheetName val="資訊分析"/>
-      <sheetName val="KIT清單"/>
-      <sheetName val="Index清單"/>
-      <sheetName val="清單"/>
-      <sheetName val="Product List"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>臨床-周信堅</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>2025#1844_TS251015009-2</v>
-          </cell>
-          <cell r="E5">
-            <v>45945</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>北榮</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>陳燕彰</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>李秀青(媽媽)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RNA分析需求表"/>
       <sheetName val="KEGG_物種縮寫"/>
@@ -3137,7 +2260,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3164,7 +2287,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3481,744 +2604,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3CF606-6018-4142-8B3F-9A86DFBA51E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3CF606-6018-4142-8B3F-9A86DFBA51E6}">
   <sheetPr codeName="工作表10">
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="70" zoomScaleSheetLayoutView="88" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="5"/>
+    <col min="11" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4">
-        <f>[1]訂購單!H$41</f>
-        <v>0</v>
-      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <f>[1]訂購單!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="str">
-        <f>[1]訂購單!E4</f>
-        <v>臨床-周信堅</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="str">
-        <f>[1]訂購單!B5</f>
-        <v>2025#1844_TS251015009-2</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="18">
-        <f>[1]訂購單!E5</f>
-        <v>45945</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+    <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="25" t="str">
-        <f>[1]訂購單!B7</f>
-        <v>北榮</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="27" t="str">
-        <f>[1]訂購單!D7</f>
-        <v>陳燕彰</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="29" t="str">
-        <f>[1]訂購單!G7</f>
-        <v>李秀青(媽媽)</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="31">
-        <f>[1]訂購單!I7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="37"/>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43" t="s">
-        <v>14</v>
-      </c>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="48"/>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="51"/>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52">
-        <v>1</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52">
-        <v>2</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52">
-        <v>3</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52">
-        <v>4</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52">
-        <v>5</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="52">
-        <v>6</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="52">
-        <v>7</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="52">
-        <v>8</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="52">
-        <v>9</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="52">
-        <v>10</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="60"/>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="74"/>
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>19</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82"/>
-    </row>
-    <row r="26" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-    </row>
-    <row r="27" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="87"/>
-    </row>
-    <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="77"/>
-    </row>
-    <row r="30" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="91"/>
-    </row>
-    <row r="31" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="95"/>
-    </row>
-    <row r="32" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="95"/>
-    </row>
-    <row r="33" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="95"/>
-    </row>
-    <row r="34" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="95"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="96"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="98"/>
-    </row>
-    <row r="36" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="101"/>
-    </row>
-    <row r="37" spans="1:10" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="104"/>
-    </row>
-    <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
+    <row r="25" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16">
+        <v>20</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="24"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="64">
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
+  <mergeCells count="13">
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請確認Sample_ID是否有誤" error="1. 是否有空格_x000a_2. 是否以數字開頭_x000a_3. 是否包含下列特殊符號&quot;!&quot;、&quot;#&quot;、 &quot;/&quot;、&quot;|&quot;、&quot;+&quot;、&quot;.&quot;、&quot;%&quot;、&quot;(&quot;、&quot;)&quot;" sqref="B12:B21 C12" xr:uid="{FB6C959E-8CE5-4E2D-A0A6-EE9F97670E82}">
-      <formula1>IF(AND(LEN(B12)=LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B12," ",),"!",),"#",),"/",),"|",),"+",),".",),"%",),"(",),")",)),IF(NOT(ISNUMBER(LEFT(B12)*1)),TRUE,FALSE)),"TRUE","FALSE")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請確認Sample_ID是否有誤" error="1. 是否有空格_x000a_2. 是否以數字開頭_x000a_3. 是否包含下列特殊符號&quot;!&quot;、&quot;#&quot;、 &quot;/&quot;、&quot;|&quot;、&quot;+&quot;、&quot;.&quot;、&quot;%&quot;、&quot;(&quot;、&quot;)&quot;" sqref="B6:B25 C6:C14" xr:uid="{FB6C959E-8CE5-4E2D-A0A6-EE9F97670E82}">
+      <formula1>IF(AND(LEN(B6)=LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B6," ",),"!",),"#",),"/",),"|",),"+",),".",),"%",),"(",),")",)),IF(NOT(ISNUMBER(LEFT(B6)*1)),TRUE,FALSE)),"TRUE","FALSE")</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>第 &amp;P 頁，共 &amp;N 頁</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="CheckBox20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>88900</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>438150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1016000</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>692150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="CheckBox20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="CheckBox19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>88900</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>203200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="CheckBox19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>